--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/elasticNetWork/components/unBindPip.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/components/elasticNetWork/components/unBindPip.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,15 +24,9 @@
     <t>unbind_tips_one</t>
   </si>
   <si>
-    <t>If the EIP needs to be associated after disassociation, it only supports associating the EIP that is in the same availability zone with the virtual machine or that has the full availability zone attribute</t>
-  </si>
-  <si>
     <t>unbind_tips_two</t>
   </si>
   <si>
-    <t>If the EIP needs to be associated after disassociation, it only supports associating EIP that has the full availability zone attribute</t>
-  </si>
-  <si>
     <t>confirm_unbind_pip</t>
   </si>
   <si>
@@ -133,6 +127,14 @@
       </rPr>
       <t>IP</t>
     </r>
+  </si>
+  <si>
+    <t>If the EIP needs to be associated after disassociation, it only supports associating the EIP that is in the same AG with the virtual machine or that has the all AZs attribute.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If the EIP needs to be associated after disassociation, it only supports associating EIP that has the all AZs attribute.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -187,9 +189,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -532,55 +537,55 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="226.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="32.625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="60" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C3 A1:A3" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:A3 C3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>